--- a/TNC information table.xlsx
+++ b/TNC information table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>TNC</t>
   </si>
@@ -68,13 +68,46 @@
     <t>AGW PE</t>
   </si>
   <si>
-    <t>Filters</t>
-  </si>
-  <si>
-    <t>PLL</t>
-  </si>
-  <si>
     <t>.1-20V</t>
+  </si>
+  <si>
+    <t>Internal AMD 7910 chip uses digital filters</t>
+  </si>
+  <si>
+    <t>http://pdf1.alldatasheet.com/datasheet-pdf/view/124526/AMD/AM7910PC.html</t>
+  </si>
+  <si>
+    <t>http://www.repeater-builder.com/aea/pdf/aea-pk-88-user-manual.pdf</t>
+  </si>
+  <si>
+    <t>http://www.radiomanual.info/schemi/ACC_packet/MFJ-1278_MFJ-1278T_user.pdf</t>
+  </si>
+  <si>
+    <t>T3 uses 8-bit samples. The current sample is multiplied with a sample from a fixed delay (I think it should be 1/4 of the 1700 hz AFSK center frequency) and then the result is low-pass filtered. A separate section handles clock recovery.</t>
+  </si>
+  <si>
+    <t>In the OT1+ the samples were quantized to a single bit, but the T3 uses 8-bit samples. The current sample is multiplied with a sample from a fixed delay (I think it should be 1/4 of the 1700 hz AFSK center frequency) and then the result is low-pass filtered. A separate section handles clock recovery.</t>
+  </si>
+  <si>
+    <t>Analog Filters</t>
+  </si>
+  <si>
+    <t>Digital Filters</t>
+  </si>
+  <si>
+    <t>The TCM3105 chip demodulator is an edge-triggered multivibrator that triggers off positive- and negative-going edges</t>
+  </si>
+  <si>
+    <t>XR-2211 PLL Chip</t>
+  </si>
+  <si>
+    <t>10mv-3v</t>
+  </si>
+  <si>
+    <t>http://html.alldatasheet.com/html-pdf/80494/EXAR/XR-2211/81/1/XR-2211.html</t>
+  </si>
+  <si>
+    <t>PLL XR-2211</t>
   </si>
 </sst>
 </file>
@@ -110,8 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,15 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -441,26 +478,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>